--- a/Instances/02_Lumpy_b4_fe25_en_rk50_ll0_l40_HFalse.xlsx
+++ b/Instances/02_Lumpy_b4_fe25_en_rk50_ll0_l40_HFalse.xlsx
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>16001</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8001</v>
       </c>
       <c r="D8" t="n">
         <v>0.037</v>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>32001</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2801</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>16001</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8001</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>32001</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>34801</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
